--- a/doc/log/log_201508030327_周同.xlsx
+++ b/doc/log/log_201508030327_周同.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -57,6 +57,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、学会</t>
     </r>
@@ -76,6 +77,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -95,6 +97,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的</t>
     </r>
@@ -114,6 +117,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项目构建
 </t>
@@ -134,6 +138,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、学会数据库的自动生成</t>
     </r>
@@ -155,6 +160,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、学会</t>
     </r>
@@ -174,6 +180,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -193,6 +200,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的</t>
     </r>
@@ -212,6 +220,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项目构建
 </t>
@@ -232,6 +241,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、学会数据库的自动生成</t>
     </r>
@@ -243,6 +253,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">利用数据库插件自动生成数据还是一直出错。
 接下来吧数据库自动生成搞</t>
@@ -257,6 +268,9 @@
       </rPr>
       <t xml:space="preserve">6</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00-20:00</t>
   </si>
   <si>
     <t xml:space="preserve">周次</t>
@@ -269,16 +283,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
+    <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="文泉驿微米黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -315,6 +331,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,12 +381,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,6 +396,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -393,18 +423,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.44"/>
   </cols>
@@ -441,6 +471,14 @@
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="49.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +514,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>4</v>

--- a/doc/log/log_201508030327_周同.xlsx
+++ b/doc/log/log_201508030327_周同.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -59,7 +59,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">、学会</t>
+      <t xml:space="preserve">、学</t>
     </r>
     <r>
       <rPr>
@@ -79,7 +79,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">和</t>
+      <t xml:space="preserve">的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">maven+spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">项目构建
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">完成了</t>
     </r>
     <r>
       <rPr>
@@ -89,7 +122,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">idea</t>
+      <t xml:space="preserve">mave</t>
     </r>
     <r>
       <rPr>
@@ -99,28 +132,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">maven+spring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿微米黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">项目构建
-</t>
+      <t xml:space="preserve">的安装和</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +142,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">jdk</t>
     </r>
     <r>
       <rPr>
@@ -140,8 +152,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">、学会数据库的自动生成</t>
-    </r>
+      <t xml:space="preserve">环境安装</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00-20:00</t>
   </si>
   <si>
     <r>
@@ -150,7 +165,6 @@
         <color rgb="FF000000"/>
         <rFont val="Open Sans"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -160,9 +174,8 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">、学会</t>
+      </rPr>
+      <t xml:space="preserve">、学</t>
     </r>
     <r>
       <rPr>
@@ -170,7 +183,6 @@
         <color rgb="FF000000"/>
         <rFont val="Open Sans"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">eclipse</t>
     </r>
@@ -180,37 +192,15 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
+      </rPr>
+      <t xml:space="preserve">的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
         <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">idea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿微米黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">maven+spring</t>
     </r>
@@ -220,57 +210,55 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项目构建
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿微米黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">、学会数据库的自动生成</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿微米黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">利用数据库插件自动生成数据还是一直出错。
-接下来吧数据库自动生成搞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">18:00-20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成了eclipse中maven等配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熟练掌握工程的构建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、学数据库的基本操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学会了数据库的库、表等的操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">继续练习数据库命令 加强使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、学习git命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学会了git的git clone、pull、push等基本操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、通过git掌握团队工程的配合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过git掌握团队工程的配合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、根据老师的示例工程修改自己的工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根据老师的示例工程修改自己的工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在问题，没能解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在问题，还是不能用，有空再和同学交流下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、按着老师上课演示的，修改自己工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">准备 安恒杯 网络安全比赛，没能做任务</t>
   </si>
   <si>
     <t xml:space="preserve">周次</t>
@@ -283,12 +271,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\月D\日"/>
-    <numFmt numFmtId="166" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -336,6 +323,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="文泉驿微米黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -381,28 +387,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,62 +445,269 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>43219</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="49.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>43220</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>43223</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>43224</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>43225</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>43226</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>43227</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>43228</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="53.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="49.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="48.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -514,20 +743,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
